--- a/biology/Biochimie/Céphem/Céphem.xlsx
+++ b/biology/Biochimie/Céphem/Céphem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phem</t>
+          <t>Céphem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les céphems constituent un sous-groupe d'antibiotiques bêta-lactamines qui comprennent les céphalosporines (des trois générations) et les céphamycines. En toute rigueur les oxacephems ne font pas partie des céphems[1].
-Ils comportent un noyau céphème, c'est-à-dire que le noyau β-lactame est accolé à un cycle dihydrothiazine avec l'atome d'azote en commun[2].
-Parmi les allergies reconnues aux antibiotiques de la famille des bêta-lactamines, des sensibilisations spécifiques au noyau céphème sont rapportées [3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les céphems constituent un sous-groupe d'antibiotiques bêta-lactamines qui comprennent les céphalosporines (des trois générations) et les céphamycines. En toute rigueur les oxacephems ne font pas partie des céphems.
+Ils comportent un noyau céphème, c'est-à-dire que le noyau β-lactame est accolé à un cycle dihydrothiazine avec l'atome d'azote en commun.
+Parmi les allergies reconnues aux antibiotiques de la famille des bêta-lactamines, des sensibilisations spécifiques au noyau céphème sont rapportées .
 </t>
         </is>
       </c>
